--- a/src/main/resources/template/extractImportTemplateNewError.xlsx
+++ b/src/main/resources/template/extractImportTemplateNewError.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22365" windowHeight="9270"/>
+    <workbookView windowWidth="23310" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -489,10 +489,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -548,9 +548,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -561,6 +598,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -568,10 +682,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -582,121 +697,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -713,61 +713,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,127 +881,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,21 +961,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -986,50 +971,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1052,8 +993,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1062,148 +1062,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1226,13 +1226,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1244,16 +1244,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1577,8 +1577,8 @@
   <sheetPr/>
   <dimension ref="A1:AR5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -2013,6 +2013,14 @@
     <mergeCell ref="AP3:AP4"/>
     <mergeCell ref="AQ3:AQ4"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
+      <formula1>"期间提成,扎账总提成,扎账后提成,坏账明细,绩效奖提成,预提绩效奖,扎账前提成"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A$1:A$1048576">
+      <formula1>"公司员工,外部人员,员工个体户"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/src/main/resources/template/extractImportTemplateNewError.xlsx
+++ b/src/main/resources/template/extractImportTemplateNewError.xlsx
@@ -489,10 +489,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -518,6 +518,26 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -525,51 +545,136 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,120 +690,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -713,79 +711,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,115 +879,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,26 +961,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1014,11 +985,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1033,181 +1043,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1223,19 +1209,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1244,16 +1230,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1578,7 +1561,7 @@
   <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1630,7 +1613,7 @@
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="1"/>
@@ -1676,7 +1659,7 @@
       <c r="AQ2" s="4"/>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:43">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1688,10 +1671,10 @@
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1737,10 +1720,10 @@
       <c r="AM3" s="11"/>
       <c r="AN3" s="11"/>
       <c r="AO3" s="11"/>
-      <c r="AP3" s="7" t="s">
+      <c r="AP3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AQ3" s="7" t="s">
+      <c r="AQ3" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1749,115 +1732,115 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="T4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="U4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="V4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="13" t="s">
+      <c r="W4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="X4" s="14" t="s">
+      <c r="X4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Y4" s="15" t="s">
+      <c r="Y4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="Z4" s="15" t="s">
+      <c r="Z4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AA4" s="15" t="s">
+      <c r="AA4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AB4" s="15" t="s">
+      <c r="AB4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="AC4" s="15" t="s">
+      <c r="AC4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AD4" s="14" t="s">
+      <c r="AD4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AE4" s="15" t="s">
+      <c r="AE4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AF4" s="15" t="s">
+      <c r="AF4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AG4" s="15" t="s">
+      <c r="AG4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AH4" s="15" t="s">
+      <c r="AH4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AI4" s="15" t="s">
+      <c r="AI4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AJ4" s="15" t="s">
+      <c r="AJ4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AK4" s="7" t="s">
+      <c r="AK4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AL4" s="7" t="s">
+      <c r="AL4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AM4" s="7" t="s">
+      <c r="AM4" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AN4" s="15" t="s">
+      <c r="AN4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AO4" s="15" t="s">
+      <c r="AO4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AP4" s="7"/>
-      <c r="AQ4" s="7"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="14"/>
       <c r="AR4" t="s">
         <v>54</v>
       </c>
@@ -2014,11 +1997,11 @@
     <mergeCell ref="AQ3:AQ4"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A$1:A$1048576">
+      <formula1>"公司员工,外部人员,员工个体户"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
       <formula1>"期间提成,扎账总提成,扎账后提成,坏账明细,绩效奖提成,预提绩效奖,扎账前提成"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A$1:A$1048576">
-      <formula1>"公司员工,外部人员,员工个体户"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/extractImportTemplateNewError.xlsx
+++ b/src/main/resources/template/extractImportTemplateNewError.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23310" windowHeight="10560"/>
+    <workbookView windowWidth="28065" windowHeight="10470"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>提成明细</t>
   </si>
@@ -334,6 +334,9 @@
     <t>未达标罚款</t>
   </si>
   <si>
+    <t>往届成本</t>
+  </si>
+  <si>
     <t>往来扣款</t>
   </si>
   <si>
@@ -458,6 +461,9 @@
   </si>
   <si>
     <t>{.nonConformancePenalty}</t>
+  </si>
+  <si>
+    <t>{.previousCost}</t>
   </si>
   <si>
     <t>{.currentDeduction}</t>
@@ -489,10 +495,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -546,7 +552,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,33 +561,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,6 +594,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -611,13 +625,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -635,14 +642,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -658,13 +657,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -673,16 +665,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,6 +687,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -711,25 +717,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,164 +901,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -947,6 +953,43 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -970,6 +1013,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -981,6 +1039,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1003,32 +1070,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1048,152 +1091,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1221,9 +1264,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1233,8 +1273,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1558,10 +1604,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AR5"/>
+  <dimension ref="A1:AS5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AG5" sqref="AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1597,11 +1643,11 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
     </row>
-    <row r="2" ht="30" customHeight="1" spans="1:43">
+    <row r="2" ht="30" customHeight="1" spans="1:44">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1657,8 +1703,9 @@
       <c r="AO2" s="4"/>
       <c r="AP2" s="4"/>
       <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
     </row>
-    <row r="3" ht="30" customHeight="1" spans="1:43">
+    <row r="3" ht="30" customHeight="1" spans="1:44">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -1692,42 +1739,43 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="11" t="s">
+      <c r="T3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11" t="s">
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="11" t="s">
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AL3" s="11"/>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="11"/>
-      <c r="AO3" s="11"/>
-      <c r="AP3" s="14" t="s">
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AQ3" s="14" t="s">
+      <c r="AR3" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="30" customHeight="1" spans="1:44">
+    <row r="4" ht="30" customHeight="1" spans="1:45">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1737,7 +1785,7 @@
       <c r="G4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="8" t="s">
@@ -1746,25 +1794,25 @@
       <c r="J4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="8" t="s">
         <v>27</v>
       </c>
       <c r="P4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="8" t="s">
         <v>29</v>
       </c>
       <c r="R4" s="8" t="s">
@@ -1782,49 +1830,49 @@
       <c r="V4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="12" t="s">
+      <c r="W4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="X4" s="13" t="s">
+      <c r="X4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="Y4" s="12" t="s">
+      <c r="Y4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Z4" s="12" t="s">
+      <c r="Z4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AA4" s="12" t="s">
+      <c r="AA4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AB4" s="12" t="s">
+      <c r="AB4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AC4" s="12" t="s">
+      <c r="AC4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AD4" s="13" t="s">
+      <c r="AD4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AE4" s="12" t="s">
+      <c r="AE4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AF4" s="12" t="s">
+      <c r="AF4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AG4" s="12" t="s">
+      <c r="AG4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AH4" s="12" t="s">
+      <c r="AH4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AI4" s="12" t="s">
+      <c r="AI4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AJ4" s="12" t="s">
+      <c r="AJ4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AK4" s="8" t="s">
+      <c r="AK4" s="11" t="s">
         <v>49</v>
       </c>
       <c r="AL4" s="8" t="s">
@@ -1833,168 +1881,174 @@
       <c r="AM4" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AN4" s="12" t="s">
+      <c r="AN4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AO4" s="12" t="s">
+      <c r="AO4" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AP4" s="14"/>
-      <c r="AQ4" s="14"/>
-      <c r="AR4" t="s">
+      <c r="AP4" s="11" t="s">
         <v>54</v>
       </c>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="15"/>
+      <c r="AS4" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:45">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AD5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AM5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AP5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AQ5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AR5" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A1:U1"/>
-    <mergeCell ref="K2:AQ2"/>
+    <mergeCell ref="K2:AR2"/>
     <mergeCell ref="G3:S3"/>
     <mergeCell ref="T3:Y3"/>
     <mergeCell ref="Z3:AJ3"/>
-    <mergeCell ref="AK3:AO3"/>
+    <mergeCell ref="AK3:AP3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="AP3:AP4"/>
     <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="AR3:AR4"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A$1:A$1048576">
